--- a/va_facility_data_2025-02-20/Natchez VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Natchez%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Natchez VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Natchez%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re3b5ee8db3de46d6a32b00ee20295761"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5f8ad6b4a5964bcaa74f7881367a6d52"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3ba8467ec8904a0e9fbc08d048b3784a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd5560f4567454b3f9bb34ca83006ebe7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R49c9fe9f56ba46c1ba9410b4c1aa7284"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9869646c083c479abdb94cb89119f7e8"/>
   </x:sheets>
 </x:workbook>
 </file>
